--- a/assets/2.2_行业周度概览.xlsx
+++ b/assets/2.2_行业周度概览.xlsx
@@ -31,94 +31,94 @@
     <t>行业平均周度换手率占比分位数</t>
   </si>
   <si>
+    <t>农林牧渔</t>
+  </si>
+  <si>
     <t>基础化工</t>
   </si>
   <si>
+    <t>电力设备及新能源</t>
+  </si>
+  <si>
     <t>交通运输</t>
   </si>
   <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>纺织服装</t>
+  </si>
+  <si>
+    <t>石油石化</t>
+  </si>
+  <si>
+    <t>建材</t>
+  </si>
+  <si>
+    <t>电力及公用事业</t>
+  </si>
+  <si>
+    <t>消费者服务</t>
+  </si>
+  <si>
+    <t>综合金融</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>传媒</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t>轻工制造</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
     <t>有色金属</t>
   </si>
   <si>
-    <t>综合金融</t>
-  </si>
-  <si>
-    <t>综合</t>
-  </si>
-  <si>
-    <t>石油石化</t>
-  </si>
-  <si>
-    <t>电力设备及新能源</t>
-  </si>
-  <si>
-    <t>电力及公用事业</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>建材</t>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>商贸零售</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t>机械</t>
   </si>
   <si>
     <t>通信</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
     <t>非银行金融</t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
-    <t>家电</t>
-  </si>
-  <si>
-    <t>国防军工</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>医药</t>
-  </si>
-  <si>
-    <t>计算机</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>机械</t>
-  </si>
-  <si>
-    <t>纺织服装</t>
-  </si>
-  <si>
-    <t>农林牧渔</t>
-  </si>
-  <si>
-    <t>传媒</t>
-  </si>
-  <si>
-    <t>消费者服务</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>轻工制造</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>商贸零售</t>
   </si>
 </sst>
 </file>
@@ -504,16 +504,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6.716484546661377</v>
+        <v>1.100814819335938</v>
       </c>
       <c r="C2">
-        <v>90.90908813476562</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>19.34012307229529</v>
+        <v>14.29698950109028</v>
       </c>
       <c r="E2">
-        <v>64.28571319580078</v>
+        <v>53.33333206176758</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -521,16 +521,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.472095847129822</v>
+        <v>7.893408298492432</v>
       </c>
       <c r="C3">
-        <v>81.81818389892578</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>13.44905938317136</v>
+        <v>19.57059103974028</v>
       </c>
       <c r="E3">
-        <v>92.85713958740234</v>
+        <v>66.66666412353516</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,16 +538,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>6.500161647796631</v>
+        <v>12.68211269378662</v>
       </c>
       <c r="C4">
-        <v>81.81818389892578</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>24.03266560935974</v>
+        <v>30.99728601053357</v>
       </c>
       <c r="E4">
-        <v>64.28571319580078</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -555,16 +555,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1798259019851685</v>
+        <v>1.619480729103088</v>
       </c>
       <c r="C5">
-        <v>81.81818389892578</v>
+        <v>91.66666412353516</v>
       </c>
       <c r="D5">
-        <v>16.3274799823761</v>
+        <v>11.87767313263281</v>
       </c>
       <c r="E5">
-        <v>64.28571319580078</v>
+        <v>66.66666412353516</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -572,16 +572,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.208429753780365</v>
+        <v>1.008443355560303</v>
       </c>
       <c r="C6">
-        <v>81.81818389892578</v>
+        <v>91.66666412353516</v>
       </c>
       <c r="D6">
-        <v>18.82723041202711</v>
+        <v>12.26769804496032</v>
       </c>
       <c r="E6">
-        <v>85.71428680419922</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -589,16 +589,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.5590968728065491</v>
+        <v>0.6950334310531616</v>
       </c>
       <c r="C7">
-        <v>81.81818389892578</v>
+        <v>91.66666412353516</v>
       </c>
       <c r="D7">
-        <v>16.0835195756426</v>
+        <v>18.14844804048538</v>
       </c>
       <c r="E7">
-        <v>71.42857360839844</v>
+        <v>73.33333587646484</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -606,16 +606,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>9.327017784118652</v>
+        <v>0.7321617603302002</v>
       </c>
       <c r="C8">
-        <v>81.81818389892578</v>
+        <v>91.66666412353516</v>
       </c>
       <c r="D8">
-        <v>23.42834492400289</v>
+        <v>15.49144312330321</v>
       </c>
       <c r="E8">
-        <v>57.14285659790039</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -623,16 +623,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.499004364013672</v>
+        <v>0.9400429129600525</v>
       </c>
       <c r="C9">
-        <v>81.81818389892578</v>
+        <v>91.66666412353516</v>
       </c>
       <c r="D9">
-        <v>13.66366845994017</v>
+        <v>18.35917181127212</v>
       </c>
       <c r="E9">
-        <v>57.14285659790039</v>
+        <v>73.33333587646484</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -640,16 +640,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.7390373945236206</v>
+        <v>2.877874374389648</v>
       </c>
       <c r="C10">
-        <v>81.81818389892578</v>
+        <v>91.66666412353516</v>
       </c>
       <c r="D10">
-        <v>17.90294158293141</v>
+        <v>14.87828036010526</v>
       </c>
       <c r="E10">
-        <v>92.85713958740234</v>
+        <v>86.66666412353516</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8359876275062561</v>
+        <v>0.785746693611145</v>
       </c>
       <c r="C11">
-        <v>81.81818389892578</v>
+        <v>83.33333587646484</v>
       </c>
       <c r="D11">
-        <v>19.42662591653712</v>
+        <v>18.96184805035591</v>
       </c>
       <c r="E11">
-        <v>85.71428680419922</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -674,16 +674,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>6.02104377746582</v>
+        <v>0.1826094388961792</v>
       </c>
       <c r="C12">
-        <v>72.72727203369141</v>
+        <v>83.33333587646484</v>
       </c>
       <c r="D12">
-        <v>22.45447046737202</v>
+        <v>16.25471994876862</v>
       </c>
       <c r="E12">
-        <v>42.85714340209961</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -691,16 +691,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1.715606212615967</v>
+        <v>0.8427945971488953</v>
       </c>
       <c r="C13">
-        <v>63.6363639831543</v>
+        <v>83.33333587646484</v>
       </c>
       <c r="D13">
-        <v>17.65783269629802</v>
+        <v>15.90606394906839</v>
       </c>
       <c r="E13">
-        <v>35.71428680419922</v>
+        <v>86.66666412353516</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -708,16 +708,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>3.380664110183716</v>
+        <v>0.2067595273256302</v>
       </c>
       <c r="C14">
-        <v>63.6363639831543</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>9.336828972550405</v>
+        <v>15.68680873124496</v>
       </c>
       <c r="E14">
-        <v>64.28571319580078</v>
+        <v>66.66666412353516</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -725,16 +725,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.779899001121521</v>
+        <v>1.718413472175598</v>
       </c>
       <c r="C15">
-        <v>63.6363639831543</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>12.607448050609</v>
+        <v>4.317190465472994</v>
       </c>
       <c r="E15">
-        <v>92.85713958740234</v>
+        <v>53.33333206176758</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -742,16 +742,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1.425280809402466</v>
+        <v>3.283727645874023</v>
       </c>
       <c r="C16">
-        <v>63.6363639831543</v>
+        <v>75</v>
       </c>
       <c r="D16">
-        <v>13.41088931262493</v>
+        <v>20.59184132133212</v>
       </c>
       <c r="E16">
-        <v>42.85714340209961</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -759,16 +759,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>2.650743246078491</v>
+        <v>1.872642517089844</v>
       </c>
       <c r="C17">
-        <v>63.6363639831543</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>18.00545439641338</v>
+        <v>17.90679322974182</v>
       </c>
       <c r="E17">
-        <v>64.28571319580078</v>
+        <v>46.66666793823242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -776,16 +776,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>18.32406997680664</v>
+        <v>5.495838642120361</v>
       </c>
       <c r="C18">
-        <v>63.6363639831543</v>
+        <v>58.33333206176758</v>
       </c>
       <c r="D18">
-        <v>24.22083128724367</v>
+        <v>13.3894943180239</v>
       </c>
       <c r="E18">
-        <v>42.85714340209961</v>
+        <v>46.66666793823242</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -793,16 +793,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1.635102033615112</v>
+        <v>1.148614883422852</v>
       </c>
       <c r="C19">
-        <v>54.54545593261719</v>
+        <v>58.33333206176758</v>
       </c>
       <c r="D19">
-        <v>4.554061896744228</v>
+        <v>16.81461450819335</v>
       </c>
       <c r="E19">
-        <v>71.42857360839844</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -810,16 +810,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>5.33132266998291</v>
+        <v>1.377744317054749</v>
       </c>
       <c r="C20">
-        <v>54.54545593261719</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>14.23195803334698</v>
+        <v>12.73197610676289</v>
       </c>
       <c r="E20">
-        <v>57.14285659790039</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -827,16 +827,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>8.602413177490234</v>
+        <v>4.358813762664795</v>
       </c>
       <c r="C21">
-        <v>45.45454406738281</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>23.25212745798959</v>
+        <v>17.31111774904521</v>
       </c>
       <c r="E21">
-        <v>57.14285659790039</v>
+        <v>33.33333206176758</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -844,16 +844,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>1.286745429039001</v>
+        <v>1.291661977767944</v>
       </c>
       <c r="C22">
-        <v>45.45454406738281</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>9.710881051692096</v>
+        <v>9.979829556111133</v>
       </c>
       <c r="E22">
-        <v>42.85714340209961</v>
+        <v>53.33333206176758</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -861,16 +861,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>8.328251838684082</v>
+        <v>1.33267617225647</v>
       </c>
       <c r="C23">
-        <v>36.3636360168457</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>23.00282128029975</v>
+        <v>15.99967069445916</v>
       </c>
       <c r="E23">
-        <v>42.85714340209961</v>
+        <v>66.66666412353516</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -878,16 +878,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.5161837339401245</v>
+        <v>5.556517601013184</v>
       </c>
       <c r="C24">
-        <v>27.27272796630859</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>15.76418403625488</v>
+        <v>18.88627188682556</v>
       </c>
       <c r="E24">
-        <v>28.5714282989502</v>
+        <v>46.66666793823242</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -895,16 +895,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.8198462724685669</v>
+        <v>2.131901979446411</v>
       </c>
       <c r="C25">
-        <v>27.27272796630859</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>13.57082194260189</v>
+        <v>14.19006614744171</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>33.33333206176758</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -912,16 +912,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>2.401509761810303</v>
+        <v>15.00424766540527</v>
       </c>
       <c r="C26">
-        <v>27.27272796630859</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>17.55153516105243</v>
+        <v>18.90659512459271</v>
       </c>
       <c r="E26">
-        <v>42.85714340209961</v>
+        <v>26.66666603088379</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -929,16 +929,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.5389972329139709</v>
+        <v>0.904113233089447</v>
       </c>
       <c r="C27">
-        <v>27.27272796630859</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>16.1732445699828</v>
+        <v>13.28111361242035</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>26.66666603088379</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -946,16 +946,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.272668361663818</v>
+        <v>8.323662757873535</v>
       </c>
       <c r="C28">
-        <v>27.27272796630859</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>14.8446028693667</v>
+        <v>20.29446222715908</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -963,16 +963,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.964389443397522</v>
+        <v>8.012394905090332</v>
       </c>
       <c r="C29">
-        <v>18.18181800842285</v>
+        <v>16.66666603088379</v>
       </c>
       <c r="D29">
-        <v>16.87791437427433</v>
+        <v>19.86914492620938</v>
       </c>
       <c r="E29">
-        <v>42.85714340209961</v>
+        <v>33.33333206176758</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -980,16 +980,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>4.07326602935791</v>
+        <v>4.446424007415771</v>
       </c>
       <c r="C30">
-        <v>18.18181800842285</v>
+        <v>8.333333015441895</v>
       </c>
       <c r="D30">
-        <v>19.11685158136323</v>
+        <v>18.72077462419135</v>
       </c>
       <c r="E30">
-        <v>35.71428680419922</v>
+        <v>26.66666603088379</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -997,16 +997,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.8710708618164062</v>
+        <v>2.142033100128174</v>
       </c>
       <c r="C31">
-        <v>18.18181800842285</v>
+        <v>8.333333015441895</v>
       </c>
       <c r="D31">
-        <v>14.79665044847044</v>
+        <v>5.317189846781717</v>
       </c>
       <c r="E31">
-        <v>35.71428680419922</v>
+        <v>26.66666603088379</v>
       </c>
     </row>
   </sheetData>
